--- a/PDFStamper list.xlsx
+++ b/PDFStamper list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python37\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B7ACF7-5431-4C8E-BBEE-92080C76B192}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE72DF11-E0F8-49F4-8890-F64F71277279}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21990" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Document</t>
   </si>
@@ -45,40 +45,37 @@
     <t>1</t>
   </si>
   <si>
-    <t>7001011</t>
-  </si>
-  <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>FAR-SP-02.001</t>
-  </si>
-  <si>
-    <t>7001012</t>
-  </si>
-  <si>
-    <t>FAR-SP-02.003</t>
-  </si>
-  <si>
-    <t>7001013</t>
-  </si>
-  <si>
-    <t>FAR-SP-02.004</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1111111</t>
+  </si>
+  <si>
+    <t>FAR-SP-12.010-F01</t>
+  </si>
+  <si>
+    <t>EMB2222</t>
+  </si>
+  <si>
+    <t>EMB1111</t>
+  </si>
+  <si>
+    <t>2222222</t>
+  </si>
+  <si>
+    <t>FAR-BR-02.001</t>
+  </si>
+  <si>
+    <t>001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="000"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,13 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,14 +152,24 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,19 +730,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="8"/>
-    <col min="4" max="4" width="14.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="14.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,443 +760,432 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="6"/>
+      <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="4"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
       <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="6"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="6"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
+      <c r="C52" s="6"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="6"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="6"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
+      <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="6"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="3"/>
       <c r="C58" s="6"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="6"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="6"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="6"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="8"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="3"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="8"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="6"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="6"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="2"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="6"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="2"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="3"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="2"/>
       <c r="C68" s="6"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="4"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="6"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
+      <c r="A70" s="9"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="4"/>
+      <c r="C70" s="6"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="6"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="6"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="6"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="2"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="6"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="2"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="6"/>
+      <c r="C76" s="8"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="3"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="8"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="3"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="6"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="3"/>
+      <c r="C79" s="8"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A2:B15" name="Production1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A16:B18" name="Production1_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A25:B25" name="Production1_3"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A26:C54" name="Production1_8"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A55:C68" name="Production1_9"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A69:C71" name="Production1_10"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A72:C77" name="Production1_11"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A78:C80" name="Production1_12"/>
+    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A2:B14" name="Production1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A15:B17" name="Production1_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A24:B24" name="Production1_3"/>
+    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A25:C53" name="Production1_8"/>
+    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A54:C67" name="Production1_9"/>
+    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A68:C70" name="Production1_10"/>
+    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A71:C76" name="Production1_11"/>
+    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A77:C79" name="Production1_12"/>
   </protectedRanges>
   <autoFilter ref="A1:D1" xr:uid="{0A147D0C-CD97-4B6B-A547-F15D9B65503F}"/>
-  <sortState ref="A2:D80">
+  <sortState ref="A2:D79">
     <sortCondition ref="B1"/>
   </sortState>
-  <conditionalFormatting sqref="A2:B25">
+  <conditionalFormatting sqref="A2:B24">
     <cfRule type="expression" dxfId="48" priority="51">
       <formula>ISNOTBLANK(M2)</formula>
     </cfRule>
@@ -1200,204 +1193,204 @@
       <formula>ISBLANK(M2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:B79 A57:A68 A51:B56 A26:A50">
+  <conditionalFormatting sqref="A71:B78 A56:A67 A50:B55 A25:A49">
     <cfRule type="expression" priority="49">
-      <formula>ISNOTBLANK(J26)</formula>
+      <formula>ISNOTBLANK(J25)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="46" priority="50">
-      <formula>ISBLANK(J26)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
+      <formula>ISBLANK(J25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
     <cfRule type="expression" dxfId="45" priority="47">
+      <formula>ISNOTBLANK(N25)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="48">
+      <formula>ISBLANK(N25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B27">
+    <cfRule type="expression" dxfId="43" priority="45">
       <formula>ISNOTBLANK(N26)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="48">
+    <cfRule type="expression" dxfId="42" priority="46">
       <formula>ISBLANK(N26)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B28">
-    <cfRule type="expression" dxfId="43" priority="45">
-      <formula>ISNOTBLANK(N27)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46">
-      <formula>ISBLANK(N27)</formula>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="41" priority="43">
+      <formula>ISNOTBLANK(N28)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="44">
+      <formula>ISBLANK(N28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="41" priority="43">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>ISNOTBLANK(N29)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="44">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>ISBLANK(N29)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="39" priority="41">
+  <conditionalFormatting sqref="B30:B31">
+    <cfRule type="expression" dxfId="37" priority="39">
       <formula>ISNOTBLANK(N30)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="42">
+    <cfRule type="expression" dxfId="36" priority="40">
       <formula>ISBLANK(N30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:B32">
-    <cfRule type="expression" dxfId="37" priority="39">
-      <formula>ISNOTBLANK(N31)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="40">
-      <formula>ISBLANK(N31)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B34">
+  <conditionalFormatting sqref="B32:B33">
     <cfRule type="expression" dxfId="35" priority="37">
-      <formula>ISNOTBLANK(N33)</formula>
+      <formula>ISNOTBLANK(N32)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="38">
-      <formula>ISBLANK(N33)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
+      <formula>ISBLANK(N32)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:B35">
     <cfRule type="expression" dxfId="33" priority="35">
-      <formula>ISNOTBLANK(N35)</formula>
+      <formula>ISNOTBLANK(N34)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="36">
-      <formula>ISBLANK(N35)</formula>
+      <formula>ISBLANK(N34)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="31" priority="33">
+      <formula>ISNOTBLANK(N36)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="34">
+      <formula>ISBLANK(N36)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="31" priority="33">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>ISNOTBLANK(N37)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="34">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>ISBLANK(N37)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="29" priority="31">
+  <conditionalFormatting sqref="B38:B39">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>ISNOTBLANK(N38)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>ISBLANK(N38)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:B40">
-    <cfRule type="expression" dxfId="27" priority="29">
-      <formula>ISNOTBLANK(N39)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
-      <formula>ISBLANK(N39)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B44">
+  <conditionalFormatting sqref="B42:B43">
     <cfRule type="expression" dxfId="25" priority="27">
-      <formula>ISNOTBLANK(N43)</formula>
+      <formula>ISNOTBLANK(N42)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="28">
-      <formula>ISBLANK(N43)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B46">
+      <formula>ISBLANK(N42)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B45">
     <cfRule type="expression" dxfId="23" priority="25">
-      <formula>ISNOTBLANK(N45)</formula>
+      <formula>ISNOTBLANK(N44)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="26">
-      <formula>ISBLANK(N45)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:B48">
+      <formula>ISBLANK(N44)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:B47">
     <cfRule type="expression" dxfId="21" priority="23">
-      <formula>ISNOTBLANK(N47)</formula>
+      <formula>ISNOTBLANK(N46)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="24">
-      <formula>ISBLANK(N47)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B42">
+      <formula>ISBLANK(N46)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:B41">
     <cfRule type="expression" dxfId="19" priority="21">
-      <formula>ISNOTBLANK(N41)</formula>
+      <formula>ISNOTBLANK(N40)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="22">
-      <formula>ISBLANK(N41)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B50">
+      <formula>ISBLANK(N40)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:B49">
     <cfRule type="expression" dxfId="17" priority="19">
-      <formula>ISNOTBLANK(N49)</formula>
+      <formula>ISNOTBLANK(N48)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="20">
-      <formula>ISBLANK(N49)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B58">
+      <formula>ISBLANK(N48)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:B57">
     <cfRule type="expression" dxfId="15" priority="17">
-      <formula>ISNOTBLANK(N57)</formula>
+      <formula>ISNOTBLANK(N56)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="18">
-      <formula>ISBLANK(N57)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59:B60">
+      <formula>ISBLANK(N56)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:B59">
     <cfRule type="expression" dxfId="13" priority="15">
-      <formula>ISNOTBLANK(N59)</formula>
+      <formula>ISNOTBLANK(N58)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="16">
-      <formula>ISBLANK(N59)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61:B62">
+      <formula>ISBLANK(N58)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B61">
     <cfRule type="expression" dxfId="11" priority="13">
-      <formula>ISNOTBLANK(N61)</formula>
+      <formula>ISNOTBLANK(N60)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="14">
-      <formula>ISBLANK(N61)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B64">
+      <formula>ISBLANK(N60)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:B63">
     <cfRule type="expression" dxfId="9" priority="11">
-      <formula>ISNOTBLANK(N63)</formula>
+      <formula>ISNOTBLANK(N62)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="12">
-      <formula>ISBLANK(N63)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65:B66">
+      <formula>ISBLANK(N62)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64:B65">
     <cfRule type="expression" dxfId="7" priority="9">
-      <formula>ISNOTBLANK(N65)</formula>
+      <formula>ISNOTBLANK(N64)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="10">
-      <formula>ISBLANK(N65)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67:B68">
+      <formula>ISBLANK(N64)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66:B67">
     <cfRule type="expression" dxfId="5" priority="7">
-      <formula>ISNOTBLANK(N67)</formula>
+      <formula>ISNOTBLANK(N66)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="8">
-      <formula>ISBLANK(N67)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69:B71">
+      <formula>ISBLANK(N66)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:B70">
     <cfRule type="expression" dxfId="3" priority="5">
-      <formula>ISNOTBLANK(N69)</formula>
+      <formula>ISNOTBLANK(N68)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>ISBLANK(N69)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:A71">
+      <formula>ISBLANK(N68)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:A70">
     <cfRule type="expression" priority="3">
-      <formula>ISNOTBLANK(J69)</formula>
+      <formula>ISNOTBLANK(J68)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="4">
-      <formula>ISBLANK(J69)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80:B80">
+      <formula>ISBLANK(J68)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79:B79">
     <cfRule type="expression" priority="1">
-      <formula>ISNOTBLANK(J80)</formula>
+      <formula>ISNOTBLANK(J79)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>ISBLANK(J80)</formula>
+      <formula>ISBLANK(J79)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PDFStamper list.xlsx
+++ b/PDFStamper list.xlsx
@@ -5,30 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python37\Scripts\PDFStamper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\OneDrive - BTG\Documents\Python\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEE0CB8-DA5C-4DBB-82D0-38A20F6960B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{D117FE94-F343-4E7A-BEF6-635D37E6B5F6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{C5BA8C6F-8D69-4B85-B17E-4388055A6E10}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="32445" windowHeight="15750" xr2:uid="{B1BF1EC0-0A54-4F01-9EF7-8ADE60BC6B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Document</t>
   </si>
@@ -42,10 +45,22 @@
     <t>Single/Double</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>SI-19-0022</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
     <t>EMB01</t>
+  </si>
+  <si>
+    <t>SI-19-0033</t>
+  </si>
+  <si>
+    <t>SI-18-0010</t>
   </si>
 </sst>
 </file>
@@ -70,7 +85,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,154 +131,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -573,20 +471,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9700574-1D50-4D08-82AD-C35D8814C2D5}">
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="14.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,295 +502,314 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12">
-        <v>7002881</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
-    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="3"/>
     </row>
   </sheetData>
-  <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A2:B2" name="Production1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A3:C11" name="Production1_8"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A12:C25" name="Production1_9"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A26:C28" name="Production1_10"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A29:C34" name="Production1_11"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A35:C37" name="Production1_12"/>
-  </protectedRanges>
-  <autoFilter ref="A1:D1" xr:uid="{0A147D0C-CD97-4B6B-A547-F15D9B65503F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
-    <sortCondition ref="B1"/>
-  </sortState>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="21" priority="69">
-      <formula>ISNOTBLANK(H3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="70">
-      <formula>ISBLANK(H3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5">
-    <cfRule type="expression" dxfId="19" priority="67">
-      <formula>ISNOTBLANK(H4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="68">
-      <formula>ISBLANK(H4)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B7">
-    <cfRule type="expression" dxfId="17" priority="63">
-      <formula>ISNOTBLANK(H6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="64">
-      <formula>ISBLANK(H6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B15">
-    <cfRule type="expression" dxfId="15" priority="61">
-      <formula>ISNOTBLANK(H14)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="62">
-      <formula>ISBLANK(H14)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B17">
-    <cfRule type="expression" dxfId="13" priority="59">
-      <formula>ISNOTBLANK(H16)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="60">
-      <formula>ISBLANK(H16)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B19">
-    <cfRule type="expression" dxfId="11" priority="57">
-      <formula>ISNOTBLANK(H18)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="58">
-      <formula>ISBLANK(H18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B21">
-    <cfRule type="expression" dxfId="9" priority="55">
-      <formula>ISNOTBLANK(H20)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="56">
-      <formula>ISBLANK(H20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B23">
-    <cfRule type="expression" dxfId="7" priority="53">
-      <formula>ISNOTBLANK(H22)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="54">
-      <formula>ISBLANK(H22)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B25">
-    <cfRule type="expression" dxfId="5" priority="51">
-      <formula>ISNOTBLANK(H24)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="52">
-      <formula>ISBLANK(H24)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B28">
-    <cfRule type="expression" dxfId="3" priority="49">
-      <formula>ISNOTBLANK(H26)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="50">
-      <formula>ISBLANK(H26)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A37">
-    <cfRule type="expression" priority="101">
-      <formula>ISNOTBLANK(#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="102">
-      <formula>ISBLANK(#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B13 B29:B37">
-    <cfRule type="expression" priority="103">
-      <formula>ISNOTBLANK(E8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="104">
-      <formula>ISBLANK(E8)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PDFStamper list.xlsx
+++ b/PDFStamper list.xlsx
@@ -1,34 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python37\Scripts\PDFStamper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\OneDrive - BTG\Documents\Python\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEE0CB8-DA5C-4DBB-82D0-38A20F6960B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{D117FE94-F343-4E7A-BEF6-635D37E6B5F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E7FBB251-E31D-4BB2-BC0D-D09A896C7282}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="19200" windowHeight="15750" xr2:uid="{B1BF1EC0-0A54-4F01-9EF7-8ADE60BC6B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Document</t>
   </si>
@@ -42,10 +45,19 @@
     <t>Single/Double</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
-    <t>EMB01</t>
+    <t>PACK01</t>
+  </si>
+  <si>
+    <t>FAR-BR-02.025</t>
+  </si>
+  <si>
+    <t>SI-20-0003</t>
   </si>
 </sst>
 </file>
@@ -70,7 +82,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,154 +128,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -573,20 +468,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9700574-1D50-4D08-82AD-C35D8814C2D5}">
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="14.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,294 +499,306 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12">
-        <v>7002881</v>
-      </c>
-      <c r="C2" s="6">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
-    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="3"/>
     </row>
   </sheetData>
-  <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A2:B2" name="Production1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A3:C11" name="Production1_8"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A12:C25" name="Production1_9"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A26:C28" name="Production1_10"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A29:C34" name="Production1_11"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A35:C37" name="Production1_12"/>
-  </protectedRanges>
-  <autoFilter ref="A1:D1" xr:uid="{0A147D0C-CD97-4B6B-A547-F15D9B65503F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
-    <sortCondition ref="B1"/>
-  </sortState>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="21" priority="69">
-      <formula>ISNOTBLANK(H3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="70">
-      <formula>ISBLANK(H3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5">
-    <cfRule type="expression" dxfId="19" priority="67">
-      <formula>ISNOTBLANK(H4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="68">
-      <formula>ISBLANK(H4)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B7">
-    <cfRule type="expression" dxfId="17" priority="63">
-      <formula>ISNOTBLANK(H6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="64">
-      <formula>ISBLANK(H6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B15">
-    <cfRule type="expression" dxfId="15" priority="61">
-      <formula>ISNOTBLANK(H14)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="62">
-      <formula>ISBLANK(H14)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B17">
-    <cfRule type="expression" dxfId="13" priority="59">
-      <formula>ISNOTBLANK(H16)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="60">
-      <formula>ISBLANK(H16)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B19">
-    <cfRule type="expression" dxfId="11" priority="57">
-      <formula>ISNOTBLANK(H18)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="58">
-      <formula>ISBLANK(H18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B21">
-    <cfRule type="expression" dxfId="9" priority="55">
-      <formula>ISNOTBLANK(H20)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="56">
-      <formula>ISBLANK(H20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B23">
-    <cfRule type="expression" dxfId="7" priority="53">
-      <formula>ISNOTBLANK(H22)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="54">
-      <formula>ISBLANK(H22)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B25">
-    <cfRule type="expression" dxfId="5" priority="51">
-      <formula>ISNOTBLANK(H24)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="52">
-      <formula>ISBLANK(H24)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B28">
-    <cfRule type="expression" dxfId="3" priority="49">
-      <formula>ISNOTBLANK(H26)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="50">
-      <formula>ISBLANK(H26)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A37">
-    <cfRule type="expression" priority="101">
-      <formula>ISNOTBLANK(#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="102">
-      <formula>ISBLANK(#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B13 B29:B37">
-    <cfRule type="expression" priority="103">
-      <formula>ISNOTBLANK(E8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="104">
-      <formula>ISBLANK(E8)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PDFStamper list.xlsx
+++ b/PDFStamper list.xlsx
@@ -1,34 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python37\Scripts\PDFStamper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\OneDrive - BTG\Documents\Python\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEE0CB8-DA5C-4DBB-82D0-38A20F6960B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80BC88A-A280-4C9C-8539-B3B6DD33C150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15750" xr2:uid="{B1BF1EC0-0A54-4F01-9EF7-8ADE60BC6B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Document</t>
   </si>
@@ -47,12 +50,21 @@
   <si>
     <t>EMB01</t>
   </si>
+  <si>
+    <t>PACK01</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>FAR-01300</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,7 +82,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,154 +134,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -573,20 +474,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9700574-1D50-4D08-82AD-C35D8814C2D5}">
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="14.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,294 +505,307 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12">
-        <v>7002881</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>98765432</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
-    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="3"/>
     </row>
   </sheetData>
-  <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A2:B2" name="Production1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A3:C11" name="Production1_8"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A12:C25" name="Production1_9"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A26:C28" name="Production1_10"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A29:C34" name="Production1_11"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NBPaPWO2VohGSas2ZZt5qtSwfp7VmTIcL14HPzIPpDjywf7ixeEcXqUtMhegtqWDzHbiQ0Pljb/fr7eO3/zPBA==" saltValue="sthOrQKuJPtFJozWCyZLew==" spinCount="100000" sqref="A35:C37" name="Production1_12"/>
-  </protectedRanges>
-  <autoFilter ref="A1:D1" xr:uid="{0A147D0C-CD97-4B6B-A547-F15D9B65503F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
-    <sortCondition ref="B1"/>
-  </sortState>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="21" priority="69">
-      <formula>ISNOTBLANK(H3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="70">
-      <formula>ISBLANK(H3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5">
-    <cfRule type="expression" dxfId="19" priority="67">
-      <formula>ISNOTBLANK(H4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="68">
-      <formula>ISBLANK(H4)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B7">
-    <cfRule type="expression" dxfId="17" priority="63">
-      <formula>ISNOTBLANK(H6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="64">
-      <formula>ISBLANK(H6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B15">
-    <cfRule type="expression" dxfId="15" priority="61">
-      <formula>ISNOTBLANK(H14)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="62">
-      <formula>ISBLANK(H14)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B17">
-    <cfRule type="expression" dxfId="13" priority="59">
-      <formula>ISNOTBLANK(H16)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="60">
-      <formula>ISBLANK(H16)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B19">
-    <cfRule type="expression" dxfId="11" priority="57">
-      <formula>ISNOTBLANK(H18)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="58">
-      <formula>ISBLANK(H18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B21">
-    <cfRule type="expression" dxfId="9" priority="55">
-      <formula>ISNOTBLANK(H20)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="56">
-      <formula>ISBLANK(H20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B23">
-    <cfRule type="expression" dxfId="7" priority="53">
-      <formula>ISNOTBLANK(H22)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="54">
-      <formula>ISBLANK(H22)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B25">
-    <cfRule type="expression" dxfId="5" priority="51">
-      <formula>ISNOTBLANK(H24)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="52">
-      <formula>ISBLANK(H24)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B28">
-    <cfRule type="expression" dxfId="3" priority="49">
-      <formula>ISNOTBLANK(H26)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="50">
-      <formula>ISBLANK(H26)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A37">
-    <cfRule type="expression" priority="101">
-      <formula>ISNOTBLANK(#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="102">
-      <formula>ISBLANK(#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B13 B29:B37">
-    <cfRule type="expression" priority="103">
-      <formula>ISNOTBLANK(E8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="104">
-      <formula>ISBLANK(E8)</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
